--- a/datasets/Dobelle79_data.xlsx
+++ b/datasets/Dobelle79_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff Boynton\Documents\MATLAB\p2p-cortical\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff Boynton\Documents\MATLAB\p2p-cortical\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB70BA-D2BA-4006-8C01-CF241D3F61A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569D1AF-F597-4445-B3C1-11F5D6F01073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10455" windowHeight="7410" xr2:uid="{432CFC3E-99D2-4337-8B1C-85DBD45B1437}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18635" windowHeight="9635" xr2:uid="{432CFC3E-99D2-4337-8B1C-85DBD45B1437}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Paper</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>pd</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J9" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -456,8 +459,8 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1.25E-4</v>
@@ -485,8 +488,8 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3">
         <v>2.5000000000000001E-4</v>
@@ -514,8 +517,8 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4">
         <v>5.0000000000000001E-4</v>
@@ -543,8 +546,8 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1E-3</v>
@@ -572,8 +575,8 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
       <c r="E6">
         <v>2E-3</v>
